--- a/lab_sample/lab_grade.xlsx
+++ b/lab_sample/lab_grade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Express_projects\co_po_web\lab_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\lab_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE83D1A-FA51-47BA-8FB8-164CAA7191CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558BC7E-1CD6-41D7-AA06-9D1E9581726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -576,16 +576,16 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -607,7 +607,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -618,7 +618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -629,7 +629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -640,7 +640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -651,7 +651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -662,7 +662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -673,7 +673,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -684,7 +684,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -695,7 +695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -706,7 +706,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -717,7 +717,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -728,7 +728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -739,7 +739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -750,7 +750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -761,7 +761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -772,7 +772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -783,7 +783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -794,7 +794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -805,7 +805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -816,7 +816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -827,7 +827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -838,7 +838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -849,7 +849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -860,7 +860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -871,7 +871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -882,7 +882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -893,7 +893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -904,7 +904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -915,7 +915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -926,7 +926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -937,7 +937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -948,7 +948,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -959,7 +959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -970,7 +970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -981,7 +981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -992,7 +992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>51</v>
       </c>
